--- a/biology/Histoire de la zoologie et de la botanique/Australian_Museum/Australian_Museum.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Australian_Museum/Australian_Museum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Australian Museum de Sydney, le plus ancien musée d’Australie, est centré sur l’histoire naturelle et l’anthropologie. Fondé en 1827, il possède principalement des collections zoologiques (vertébrés et invertébrés), de minéralogie, de paléontologie et d’anthropologie.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est le troisième comte de Bathurst, Henri Bathurst (1762-1834), secrétaire d’État aux colonies, qui, le 30 mars 1827, écrit au gouverneur de la Nouvelle-Galles du Sud pour lui demander de fonder un muséum ouvert au public. Il lui alloue la somme de 200 livres par an.
 Un projet de muséum avait déjà été formé en 1821 pour la Philosophical Society of Australasia (en) et des spécimens avaient été rassemblés à cette intention. Mais la société disparaît dès l’année suivante.
@@ -551,7 +565,9 @@
           <t>Les collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Voici la liste de quelques donateurs des collections conservées à l'Australian Museum :
 Coléoptères
